--- a/tests/data_up_to_S2022T04/raw_ranking_S2022T04.xlsx
+++ b/tests/data_up_to_S2022T04/raw_ranking_S2022T04.xlsx
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -3251,7 +3250,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -3333,7 +3332,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -3423,7 +3422,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -3505,7 +3504,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -3587,7 +3586,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -3669,7 +3668,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -3751,7 +3750,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -3833,7 +3832,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -3923,7 +3922,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -4009,7 +4008,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -4095,7 +4094,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -4177,7 +4176,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -4259,7 +4258,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>segunda</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -10813,7 +10812,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I125" t="b">
@@ -10903,7 +10902,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I126" t="b">
@@ -10985,7 +10984,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I127" t="b">
@@ -11067,7 +11066,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I128" t="b">
@@ -11149,7 +11148,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I129" t="b">
@@ -11235,7 +11234,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I130" t="b">
@@ -11317,7 +11316,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I131" t="b">
@@ -11399,7 +11398,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I132" t="b">
@@ -11481,7 +11480,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I133" t="b">
@@ -11567,7 +11566,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I134" t="b">
@@ -11649,7 +11648,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I135" t="b">
@@ -11735,7 +11734,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I136" t="b">
@@ -11817,7 +11816,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I137" t="b">
@@ -11899,7 +11898,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I138" t="b">
@@ -11981,7 +11980,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I139" t="b">
@@ -12067,7 +12066,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I140" t="b">
@@ -12149,7 +12148,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I141" t="b">
@@ -12235,7 +12234,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I142" t="b">
@@ -12317,7 +12316,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I143" t="b">
@@ -12403,7 +12402,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I144" t="b">
@@ -12485,7 +12484,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I145" t="b">
@@ -12567,7 +12566,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I146" t="b">
@@ -12649,7 +12648,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I147" t="b">
@@ -12739,7 +12738,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I148" t="b">
@@ -12825,7 +12824,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I149" t="b">
@@ -12907,7 +12906,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I150" t="b">
@@ -12989,7 +12988,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I151" t="b">
@@ -13071,7 +13070,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I152" t="b">
@@ -13153,7 +13152,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I153" t="b">
@@ -13235,7 +13234,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I154" t="b">
@@ -13325,7 +13324,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I155" t="b">
@@ -13407,7 +13406,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I156" t="b">
@@ -13489,7 +13488,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I157" t="b">
@@ -13571,7 +13570,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I158" t="b">
@@ -13653,7 +13652,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I159" t="b">
@@ -13735,7 +13734,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I160" t="b">
@@ -13817,7 +13816,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I161" t="b">
@@ -13899,7 +13898,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I162" t="b">
@@ -13981,7 +13980,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I163" t="b">
@@ -14063,7 +14062,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I164" t="b">
@@ -14145,7 +14144,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I165" t="b">
@@ -14227,7 +14226,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I166" t="b">
@@ -14309,7 +14308,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I167" t="b">
@@ -14391,7 +14390,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I168" t="b">
@@ -14473,7 +14472,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I169" t="b">
@@ -14555,7 +14554,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I170" t="b">
@@ -14637,7 +14636,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I171" t="b">
@@ -14719,7 +14718,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I172" t="b">
@@ -14801,7 +14800,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I173" t="b">
@@ -14883,7 +14882,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I174" t="b">
@@ -14965,7 +14964,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I175" t="b">
@@ -15047,7 +15046,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I176" t="b">
@@ -15129,7 +15128,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I177" t="b">
@@ -15211,7 +15210,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I178" t="b">
@@ -15293,7 +15292,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I179" t="b">
@@ -15375,7 +15374,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I180" t="b">
@@ -15465,7 +15464,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I181" t="b">
@@ -15547,7 +15546,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I182" t="b">
@@ -15629,7 +15628,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I183" t="b">
@@ -15719,7 +15718,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I184" t="b">
@@ -15801,7 +15800,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I185" t="b">
@@ -15883,7 +15882,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I186" t="b">
@@ -15965,7 +15964,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I187" t="b">
@@ -16051,7 +16050,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>tercera</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="I188" t="b">

--- a/tests/data_up_to_S2022T04/raw_ranking_S2022T04.xlsx
+++ b/tests/data_up_to_S2022T04/raw_ranking_S2022T04.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1000 (S2022T01) + 1000 (S2022T02) + 1000 (S2022T03)</t>
+          <t>1000 (S2022T03) + 1000 (S2022T02) + 1000 (S2022T01)</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -806,7 +806,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>750 (S2022T01) + 750 (S2022T03)</t>
+          <t>750 (S2022T03) + 750 (S2022T01)</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>250 (S2022T01) + 250 (S2022T03)</t>
+          <t>250 (S2022T03) + 250 (S2022T01)</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
         <v>1488</v>
@@ -2224,7 +2224,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Nowotny, Martin</t>
+          <t>Dupertuis, Gaston</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
         <v>1488</v>
@@ -2306,7 +2306,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Dupertuis, Gaston</t>
+          <t>Nowotny, Martin</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="G62" t="n">
         <v>1182</v>
@@ -5638,7 +5638,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Sueldo, Pablo</t>
+          <t>Sartor, Yemel</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="G63" t="n">
         <v>1182</v>
@@ -5720,7 +5720,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Sartor, Yemel</t>
+          <t>Sueldo, Pablo</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="G76" t="n">
         <v>1104</v>
@@ -6794,7 +6794,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Becker, Fernando</t>
+          <t>Maerker, Shion</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="G77" t="n">
         <v>1104</v>
@@ -6876,7 +6876,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Maerker, Shion</t>
+          <t>Becker, Fernando</t>
         </is>
       </c>
     </row>
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1093</v>
@@ -7122,7 +7122,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Chiara, Lucio</t>
+          <t>Campos, Dario</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1093</v>
@@ -7204,7 +7204,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Campos, Dario</t>
+          <t>Chiara, Lucio</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>375 (S2022T04) + 375 (S2022T03) + 125 (S2022T01) + 125 (S2022T02)</t>
+          <t>375 (S2022T04) + 375 (S2022T03) + 125 (S2022T02) + 125 (S2022T01)</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="G92" t="n">
         <v>1026</v>
@@ -8118,7 +8118,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Escobar, Esteban</t>
+          <t>Rulfi, Daniel</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G93" t="n">
         <v>1026</v>
@@ -8200,7 +8200,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>Rulfi, Daniel</t>
+          <t>Escobar, Esteban</t>
         </is>
       </c>
     </row>
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="G100" t="n">
         <v>1000</v>
@@ -8774,7 +8774,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>Hagge, Pilar</t>
+          <t>Arrieta, Maximiliano</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="G101" t="n">
         <v>1000</v>
@@ -8856,7 +8856,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>Arrieta, Maximiliano</t>
+          <t>Badano, Pablo</t>
         </is>
       </c>
     </row>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G102" t="n">
         <v>1000</v>
@@ -8938,7 +8938,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Badano, Pablo</t>
+          <t>Hagge, Pilar</t>
         </is>
       </c>
     </row>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="G103" t="n">
         <v>1000</v>
@@ -9020,7 +9020,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>Asenie, Santiago</t>
+          <t>Presel, Raul</t>
         </is>
       </c>
     </row>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1000</v>
@@ -9102,7 +9102,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>Presel, Raul</t>
+          <t>Asenie, Santiago</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr">
         <is>
-          <t>250 (S2022T01) + 250 (S2022T02) + 125 (S2022T04) + 125 (S2022T03)</t>
+          <t>250 (S2022T02) + 250 (S2022T01) + 125 (S2022T04) + 125 (S2022T03)</t>
         </is>
       </c>
       <c r="X108" t="inlineStr"/>
@@ -9759,7 +9759,7 @@
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr">
         <is>
-          <t>250 (S2022T03) + 75 (S2022T01) + 75 (S2022T02)</t>
+          <t>250 (S2022T03) + 75 (S2022T02) + 75 (S2022T01)</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>319</v>
+        <v>171</v>
       </c>
       <c r="G119" t="n">
         <v>960</v>
@@ -10300,7 +10300,7 @@
         </is>
       </c>
       <c r="I119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -10315,48 +10315,36 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
       </c>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>250 (S2022T02)</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>125 (S2022T01) + 125 (S2022T02)</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>250 (S2022T01)</t>
-        </is>
-      </c>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>Goy, Gerardo</t>
+          <t>Garioni, Nicolas</t>
         </is>
       </c>
     </row>
@@ -10383,7 +10371,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="G120" t="n">
         <v>960</v>
@@ -10394,7 +10382,7 @@
         </is>
       </c>
       <c r="I120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -10409,36 +10397,48 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O120" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
       </c>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>250 (S2022T02)</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>125 (S2022T02) + 125 (S2022T01)</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>250 (S2022T01)</t>
+        </is>
+      </c>
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>Garioni, Nicolas</t>
+          <t>Goy, Gerardo</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="G122" t="n">
         <v>951</v>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="I122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -10573,10 +10573,10 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T122" t="n">
         <v>0</v>
@@ -10596,13 +10596,21 @@
       <c r="U122" t="n">
         <v>0</v>
       </c>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>250 (S2022T02) + 150 (S2022T03)</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>500 (S2022T03) + 125 (S2022T02)</t>
+        </is>
+      </c>
       <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>Aguer, Jose</t>
+          <t>Palamedi, Cristian</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10637,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="G123" t="n">
         <v>951</v>
@@ -10640,7 +10648,7 @@
         </is>
       </c>
       <c r="I123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -10655,10 +10663,10 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -10667,10 +10675,10 @@
         <v>0</v>
       </c>
       <c r="R123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
         <v>0</v>
@@ -10678,21 +10686,13 @@
       <c r="U123" t="n">
         <v>0</v>
       </c>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>250 (S2022T02) + 150 (S2022T03)</t>
-        </is>
-      </c>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>500 (S2022T03) + 125 (S2022T02)</t>
-        </is>
-      </c>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>Palamedi, Cristian</t>
+          <t>Aguer, Jose</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="G129" t="n">
         <v>916</v>
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129" t="n">
         <v>0</v>
@@ -11191,16 +11191,12 @@
         <v>0</v>
       </c>
       <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr">
-        <is>
-          <t>125 (S2022T01)</t>
-        </is>
-      </c>
+      <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>Godano, Franco</t>
+          <t>Gentile, Leonardo</t>
         </is>
       </c>
     </row>
@@ -11227,7 +11223,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="G130" t="n">
         <v>916</v>
@@ -11256,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -11268,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
         <v>0</v>
@@ -11277,12 +11273,16 @@
         <v>0</v>
       </c>
       <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>125 (S2022T01)</t>
+        </is>
+      </c>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>Gentile, Leonardo</t>
+          <t>Godano, Franco</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>125 (S2022T01) + 125 (S2022T03) + 65 (S2022T04) + 65 (S2022T02)</t>
+          <t>125 (S2022T03) + 125 (S2022T01) + 65 (S2022T04) + 65 (S2022T02)</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr"/>
@@ -11809,7 +11809,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="G137" t="n">
         <v>866</v>
@@ -11864,7 +11864,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>Miner, Alberto</t>
+          <t>Tenca, Javier</t>
         </is>
       </c>
     </row>
@@ -11891,7 +11891,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G138" t="n">
         <v>866</v>
@@ -11946,7 +11946,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>Tenca, Javier</t>
+          <t>Miner, Alberto</t>
         </is>
       </c>
     </row>
@@ -12026,7 +12026,7 @@
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>190 (S2022T02) + 190 (S2022T04)</t>
+          <t>190 (S2022T04) + 190 (S2022T02)</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G149" t="n">
         <v>779</v>
@@ -12872,7 +12872,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>Fucks, Alyssa</t>
+          <t>Godoy, Franco</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="G150" t="n">
         <v>779</v>
@@ -12954,7 +12954,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>Godoy, Franco</t>
+          <t>Fucks, Alyssa</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="G155" t="n">
         <v>768</v>
@@ -13372,7 +13372,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>Brian, Martin</t>
+          <t>Cossi, Francisco</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="G156" t="n">
         <v>768</v>
@@ -13454,7 +13454,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>Cossi, Francisco</t>
+          <t>Brian, Martin</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="G169" t="n">
         <v>726</v>
@@ -14520,7 +14520,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>Aguirre, Gabriel</t>
+          <t>Martinez, Dylan</t>
         </is>
       </c>
     </row>
@@ -14547,7 +14547,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G170" t="n">
         <v>726</v>
@@ -14602,7 +14602,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>Martinez, Dylan</t>
+          <t>Aguirre, Gabriel</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="G175" t="n">
         <v>717</v>
@@ -15012,7 +15012,7 @@
       <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>Rodriguez Alarcon Emiliano</t>
+          <t>Werner, Graciela</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="G176" t="n">
         <v>717</v>
@@ -15094,7 +15094,7 @@
       <c r="Y176" t="inlineStr"/>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>Werner, Graciela</t>
+          <t>Rodriguez Alarcon Emiliano</t>
         </is>
       </c>
     </row>
@@ -15203,7 +15203,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G178" t="n">
         <v>715</v>
@@ -15258,7 +15258,7 @@
       <c r="Y178" t="inlineStr"/>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>Javita, Luis</t>
+          <t>Makhoul, Alejandro</t>
         </is>
       </c>
     </row>
@@ -15285,7 +15285,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="G179" t="n">
         <v>715</v>
@@ -15340,7 +15340,7 @@
       <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>Makhoul, Alejandro</t>
+          <t>Javita, Luis</t>
         </is>
       </c>
     </row>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="G183" t="n">
         <v>711</v>
@@ -15632,16 +15632,16 @@
         </is>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M183" t="n">
         <v>0</v>
@@ -15650,10 +15650,10 @@
         <v>0</v>
       </c>
       <c r="O183" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P183" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q183" t="n">
         <v>0</v>
@@ -15662,29 +15662,21 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U183" t="n">
         <v>0</v>
       </c>
       <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr">
-        <is>
-          <t>125 (S2022T03) + 75 (S2022T04)</t>
-        </is>
-      </c>
-      <c r="X183" t="inlineStr">
-        <is>
-          <t>40 (S2022T04) + 40 (S2022T03)</t>
-        </is>
-      </c>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>Vetrano, Luca</t>
+          <t>Rios, Benjamin</t>
         </is>
       </c>
     </row>
@@ -15711,7 +15703,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>214</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>711</v>
@@ -15722,16 +15714,16 @@
         </is>
       </c>
       <c r="I184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M184" t="n">
         <v>0</v>
@@ -15740,10 +15732,10 @@
         <v>0</v>
       </c>
       <c r="O184" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P184" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q184" t="n">
         <v>0</v>
@@ -15752,21 +15744,29 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U184" t="n">
         <v>0</v>
       </c>
       <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>125 (S2022T03) + 75 (S2022T04)</t>
+        </is>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>40 (S2022T04) + 40 (S2022T03)</t>
+        </is>
+      </c>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>Rios, Benjamin</t>
+          <t>Vetrano, Luca</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="G187" t="n">
         <v>704</v>
@@ -15986,10 +15986,10 @@
         <v>0</v>
       </c>
       <c r="O187" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P187" t="n">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="Q187" t="n">
         <v>0</v>
@@ -15998,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T187" t="n">
         <v>3</v>
@@ -16007,16 +16007,20 @@
         <v>0</v>
       </c>
       <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>75 (S2022T03)</t>
+        </is>
+      </c>
       <c r="X187" t="inlineStr">
         <is>
-          <t>65 (S2022T02) + 65 (S2022T03) + 65 (S2022T01)</t>
+          <t>190 (S2022T01) + 65 (S2022T03) + 40 (S2022T02)</t>
         </is>
       </c>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>Savino, Leandro</t>
+          <t>Colavini, Daniel</t>
         </is>
       </c>
     </row>
@@ -16043,7 +16047,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="G188" t="n">
         <v>704</v>
@@ -16072,10 +16076,10 @@
         <v>0</v>
       </c>
       <c r="O188" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P188" t="n">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="Q188" t="n">
         <v>0</v>
@@ -16084,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T188" t="n">
         <v>3</v>
@@ -16093,20 +16097,16 @@
         <v>0</v>
       </c>
       <c r="V188" t="inlineStr"/>
-      <c r="W188" t="inlineStr">
-        <is>
-          <t>75 (S2022T03)</t>
-        </is>
-      </c>
+      <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr">
         <is>
-          <t>190 (S2022T01) + 65 (S2022T03) + 40 (S2022T02)</t>
+          <t>65 (S2022T03) + 65 (S2022T02) + 65 (S2022T01)</t>
         </is>
       </c>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>Colavini, Daniel</t>
+          <t>Savino, Leandro</t>
         </is>
       </c>
     </row>
@@ -16793,7 +16793,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="G197" t="n">
         <v>680</v>
@@ -16848,7 +16848,7 @@
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>Portillo, Lucas</t>
+          <t>Delgado, Pablo</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="G198" t="n">
         <v>680</v>
@@ -16930,7 +16930,7 @@
       <c r="Y198" t="inlineStr"/>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>Delgado, Pablo</t>
+          <t>Arrieta, Matias</t>
         </is>
       </c>
     </row>
@@ -16957,7 +16957,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G199" t="n">
         <v>680</v>
@@ -17012,7 +17012,7 @@
       <c r="Y199" t="inlineStr"/>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>Arrieta, Matias</t>
+          <t>Muller, Tomas</t>
         </is>
       </c>
     </row>
@@ -17039,7 +17039,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G200" t="n">
         <v>680</v>
@@ -17094,7 +17094,7 @@
       <c r="Y200" t="inlineStr"/>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>Muller, Tomas</t>
+          <t>Portillo, Lucas</t>
         </is>
       </c>
     </row>
@@ -17539,7 +17539,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="G206" t="n">
         <v>671</v>
@@ -17594,7 +17594,7 @@
       <c r="Y206" t="inlineStr"/>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>Comas, Javier</t>
+          <t>Pillac, Juan Pablo</t>
         </is>
       </c>
     </row>
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="G207" t="n">
         <v>671</v>
@@ -17676,7 +17676,7 @@
       <c r="Y207" t="inlineStr"/>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>Pillac, Juan Pablo</t>
+          <t>Comas, Javier</t>
         </is>
       </c>
     </row>
@@ -18445,7 +18445,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="G217" t="n">
         <v>611</v>
@@ -18456,7 +18456,7 @@
         </is>
       </c>
       <c r="I217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -18474,10 +18474,10 @@
         <v>0</v>
       </c>
       <c r="O217" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P217" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Q217" t="n">
         <v>0</v>
@@ -18486,21 +18486,29 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T217" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U217" t="n">
         <v>0</v>
       </c>
       <c r="V217" t="inlineStr"/>
-      <c r="W217" t="inlineStr"/>
-      <c r="X217" t="inlineStr"/>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>50 (S2022T01)</t>
+        </is>
+      </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>125 (S2022T02) + 65 (S2022T01) + 40 (S2022T03)</t>
+        </is>
+      </c>
       <c r="Y217" t="inlineStr"/>
       <c r="Z217" t="inlineStr">
         <is>
-          <t>Aguirre, Sandra</t>
+          <t>Larrosa, Jorge</t>
         </is>
       </c>
     </row>
@@ -18527,7 +18535,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="G218" t="n">
         <v>611</v>
@@ -18538,7 +18546,7 @@
         </is>
       </c>
       <c r="I218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -18556,10 +18564,10 @@
         <v>0</v>
       </c>
       <c r="O218" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P218" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="Q218" t="n">
         <v>0</v>
@@ -18568,29 +18576,21 @@
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U218" t="n">
         <v>0</v>
       </c>
       <c r="V218" t="inlineStr"/>
-      <c r="W218" t="inlineStr">
-        <is>
-          <t>50 (S2022T01)</t>
-        </is>
-      </c>
-      <c r="X218" t="inlineStr">
-        <is>
-          <t>125 (S2022T02) + 65 (S2022T01) + 40 (S2022T03)</t>
-        </is>
-      </c>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
       <c r="Y218" t="inlineStr"/>
       <c r="Z218" t="inlineStr">
         <is>
-          <t>Larrosa, Jorge</t>
+          <t>Aguirre, Sandra</t>
         </is>
       </c>
     </row>
@@ -20461,7 +20461,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G241" t="n">
         <v>480</v>
@@ -20516,7 +20516,7 @@
       <c r="Y241" t="inlineStr"/>
       <c r="Z241" t="inlineStr">
         <is>
-          <t>Ferrero, Alejandro</t>
+          <t>Antunez, Pablo</t>
         </is>
       </c>
     </row>
@@ -20543,7 +20543,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G242" t="n">
         <v>480</v>
@@ -20598,7 +20598,7 @@
       <c r="Y242" t="inlineStr"/>
       <c r="Z242" t="inlineStr">
         <is>
-          <t>Antunez, Pablo</t>
+          <t>Ferrero, Alejandro</t>
         </is>
       </c>
     </row>
@@ -20715,7 +20715,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G244" t="n">
         <v>470</v>
@@ -20770,7 +20770,7 @@
       <c r="Y244" t="inlineStr"/>
       <c r="Z244" t="inlineStr">
         <is>
-          <t>Velazquez, Pedro</t>
+          <t>Lell, Claudia</t>
         </is>
       </c>
     </row>
@@ -20797,7 +20797,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G245" t="n">
         <v>470</v>
@@ -20852,7 +20852,7 @@
       <c r="Y245" t="inlineStr"/>
       <c r="Z245" t="inlineStr">
         <is>
-          <t>Lell, Claudia</t>
+          <t>Velazquez, Pedro</t>
         </is>
       </c>
     </row>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="X247" t="inlineStr">
         <is>
-          <t>40 (S2022T03) + 40 (S2022T04)</t>
+          <t>40 (S2022T04) + 40 (S2022T03)</t>
         </is>
       </c>
       <c r="Y247" t="inlineStr"/>
@@ -21297,7 +21297,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="G251" t="n">
         <v>416</v>
@@ -21314,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="K251" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>0</v>
@@ -21326,7 +21326,7 @@
         <v>0</v>
       </c>
       <c r="O251" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P251" t="n">
         <v>0</v>
@@ -21338,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T251" t="n">
         <v>0</v>
@@ -21347,16 +21347,12 @@
         <v>0</v>
       </c>
       <c r="V251" t="inlineStr"/>
-      <c r="W251" t="inlineStr">
-        <is>
-          <t>75 (S2022T04)</t>
-        </is>
-      </c>
+      <c r="W251" t="inlineStr"/>
       <c r="X251" t="inlineStr"/>
       <c r="Y251" t="inlineStr"/>
       <c r="Z251" t="inlineStr">
         <is>
-          <t>Ledesma, Jonas</t>
+          <t>Bertoli, Julian</t>
         </is>
       </c>
     </row>
@@ -21465,7 +21461,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G253" t="n">
         <v>416</v>
@@ -21482,7 +21478,7 @@
         <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L253" t="n">
         <v>0</v>
@@ -21494,7 +21490,7 @@
         <v>0</v>
       </c>
       <c r="O253" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P253" t="n">
         <v>0</v>
@@ -21506,7 +21502,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T253" t="n">
         <v>0</v>
@@ -21515,12 +21511,16 @@
         <v>0</v>
       </c>
       <c r="V253" t="inlineStr"/>
-      <c r="W253" t="inlineStr"/>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>75 (S2022T04)</t>
+        </is>
+      </c>
       <c r="X253" t="inlineStr"/>
       <c r="Y253" t="inlineStr"/>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>Bertoli, Julian</t>
+          <t>Ledesma, Jonas</t>
         </is>
       </c>
     </row>
@@ -21961,7 +21961,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G259" t="n">
         <v>374</v>
@@ -21972,7 +21972,7 @@
         </is>
       </c>
       <c r="I259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -21981,7 +21981,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M259" t="n">
         <v>0</v>
@@ -21993,7 +21993,7 @@
         <v>0</v>
       </c>
       <c r="P259" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q259" t="n">
         <v>0</v>
@@ -22014,13 +22014,13 @@
       <c r="W259" t="inlineStr"/>
       <c r="X259" t="inlineStr">
         <is>
-          <t>25 (S2022T04)</t>
+          <t>40 (S2022T02)</t>
         </is>
       </c>
       <c r="Y259" t="inlineStr"/>
       <c r="Z259" t="inlineStr">
         <is>
-          <t>Diaz, Benjamin</t>
+          <t>Almada, Pablo</t>
         </is>
       </c>
     </row>
@@ -22047,7 +22047,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G260" t="n">
         <v>374</v>
@@ -22058,7 +22058,7 @@
         </is>
       </c>
       <c r="I260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -22067,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M260" t="n">
         <v>0</v>
@@ -22079,7 +22079,7 @@
         <v>0</v>
       </c>
       <c r="P260" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q260" t="n">
         <v>0</v>
@@ -22100,13 +22100,13 @@
       <c r="W260" t="inlineStr"/>
       <c r="X260" t="inlineStr">
         <is>
-          <t>40 (S2022T02)</t>
+          <t>25 (S2022T04)</t>
         </is>
       </c>
       <c r="Y260" t="inlineStr"/>
       <c r="Z260" t="inlineStr">
         <is>
-          <t>Almada, Pablo</t>
+          <t>Diaz, Benjamin</t>
         </is>
       </c>
     </row>
